--- a/data/tissue.xlsx
+++ b/data/tissue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bff296038e3e4ea8/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben Fernandes\Documents\GitHub\GitHub\drug_sensitivity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E3B931D-64B8-431E-BA5A-6388656F038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B8AE8-B8F0-438B-A660-D9210658AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{219E8514-9A02-4586-AAB6-4A27881FED6C}"/>
+    <workbookView xWindow="-20490" yWindow="2385" windowWidth="20460" windowHeight="10770" xr2:uid="{219E8514-9A02-4586-AAB6-4A27881FED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="COSMIC tissue classification" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1093">
   <si>
     <t>Line</t>
   </si>
@@ -3309,6 +3309,9 @@
   </si>
   <si>
     <t>VMRC-RCW</t>
+  </si>
+  <si>
+    <t>NCI-H2804</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3377,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3670,23 +3673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168991D5-CAB4-4CC8-907F-8347E235117B}">
-  <dimension ref="A1:D1030"/>
+  <dimension ref="A1:D1031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A1018" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1031" sqref="A1031:XFD1031"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>88</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>98</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>108</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>109</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>110</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>121</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>128</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>129</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>132</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>133</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>135</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>136</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>137</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>138</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>140</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>141</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>142</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>143</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>144</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>146</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>147</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>148</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>149</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>151</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>152</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>153</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>154</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>155</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>157</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>158</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>159</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>160</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>163</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>165</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>166</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>167</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>168</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>170</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>171</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>172</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>173</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>174</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>175</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>176</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>177</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>178</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>179</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>180</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>181</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>183</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>184</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>185</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>186</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>187</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>189</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>190</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>191</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>192</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5637</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>193</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>194</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>195</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>196</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>197</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>199</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>200</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>201</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>202</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>203</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>204</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>205</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>206</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>207</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>208</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>210</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>211</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>212</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>213</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>214</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>215</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>216</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>217</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>218</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>219</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>220</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>221</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>222</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>223</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>224</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>226</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>227</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>228</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>230</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>231</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>232</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>233</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>234</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>236</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>237</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>238</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>240</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>241</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>242</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>243</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>244</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>245</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>246</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>249</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>250</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>251</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>252</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>253</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>254</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>255</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>256</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>257</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>258</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>259</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>260</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>261</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>263</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>264</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>265</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>266</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>267</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>268</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>269</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>270</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>271</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>272</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>273</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>274</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>275</v>
       </c>
@@ -6864,7 +6867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>276</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>277</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>278</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>279</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>280</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>281</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>282</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>283</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>284</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>285</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>286</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>287</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>288</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>289</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>290</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>291</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>292</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>293</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>294</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>295</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>296</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>297</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>298</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>299</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>300</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>301</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>302</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>303</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>304</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>305</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>306</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>307</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>308</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>309</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>310</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>311</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>312</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>313</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>314</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>315</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>316</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>317</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>318</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>319</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>320</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>321</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>322</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>323</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>324</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>325</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>326</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>327</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>328</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>329</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>330</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>332</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>333</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>334</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>335</v>
       </c>
@@ -7690,7 +7693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>336</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>337</v>
       </c>
@@ -7718,7 +7721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>338</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>339</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>340</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>341</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>342</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>343</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>344</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>345</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>346</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>347</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>348</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>349</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>350</v>
       </c>
@@ -7900,7 +7903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>351</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>352</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>353</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>354</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>356</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>357</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>358</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>359</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>360</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>361</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>362</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>363</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>364</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>365</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>366</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>367</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>368</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>369</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>370</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>371</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>372</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>373</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>374</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>375</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>376</v>
       </c>
@@ -8250,7 +8253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>377</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>378</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>379</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>380</v>
       </c>
@@ -8306,7 +8309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>381</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>382</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>383</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>385</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>386</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>387</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>388</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>389</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>390</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>391</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>392</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>393</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>394</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>395</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>397</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>398</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>399</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>400</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>401</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>402</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>403</v>
       </c>
@@ -8600,7 +8603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>404</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>406</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>407</v>
       </c>
@@ -8642,7 +8645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>408</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>409</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>410</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>411</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>412</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>413</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>414</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>415</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>416</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>417</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>418</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>419</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>420</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>421</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>423</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>424</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>425</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>426</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>427</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>428</v>
       </c>
@@ -8922,7 +8925,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>429</v>
       </c>
@@ -8936,7 +8939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>430</v>
       </c>
@@ -8950,7 +8953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>431</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>432</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>433</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>434</v>
       </c>
@@ -9006,7 +9009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>435</v>
       </c>
@@ -9020,7 +9023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>436</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>437</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>438</v>
       </c>
@@ -9062,7 +9065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>439</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>440</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>441</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>442</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>443</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>444</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>445</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>446</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>447</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>448</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>449</v>
       </c>
@@ -9216,7 +9219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>450</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>451</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>452</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>453</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>454</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>455</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>456</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>457</v>
       </c>
@@ -9328,7 +9331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>458</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>459</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>460</v>
       </c>
@@ -9370,7 +9373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>461</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>462</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>463</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>464</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>465</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>466</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>467</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>468</v>
       </c>
@@ -9482,7 +9485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>469</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>470</v>
       </c>
@@ -9510,7 +9513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>471</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>472</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>473</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>474</v>
       </c>
@@ -9566,7 +9569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>475</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>476</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>477</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>478</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>479</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>480</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>481</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>482</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>483</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>484</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>485</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>486</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>487</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>488</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>489</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>490</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>491</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>492</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>493</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>494</v>
       </c>
@@ -9846,7 +9849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>495</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>496</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>497</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>498</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>499</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>500</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>501</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>502</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>503</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>504</v>
       </c>
@@ -9986,7 +9989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>505</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>506</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>507</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>508</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>509</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>510</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>511</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>512</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>513</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>514</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>515</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>516</v>
       </c>
@@ -10154,7 +10157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>517</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>518</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>519</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>520</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>521</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>522</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>523</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>524</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>525</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>526</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>527</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>528</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>529</v>
       </c>
@@ -10336,7 +10339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>530</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>531</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>532</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>533</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>534</v>
       </c>
@@ -10406,7 +10409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>535</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>536</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>537</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>538</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>539</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>540</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>541</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>542</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>543</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>544</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>545</v>
       </c>
@@ -10560,7 +10563,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>547</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>548</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>549</v>
       </c>
@@ -10602,7 +10605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>550</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>551</v>
       </c>
@@ -10630,7 +10633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>552</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>553</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>554</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>555</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>556</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>557</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>558</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>559</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>560</v>
       </c>
@@ -10756,7 +10759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>561</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>562</v>
       </c>
@@ -10784,7 +10787,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>563</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>564</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>565</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>566</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>567</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>568</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>569</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>570</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>571</v>
       </c>
@@ -10910,7 +10913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>572</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>573</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>574</v>
       </c>
@@ -10952,7 +10955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>575</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>576</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>577</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>578</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>579</v>
       </c>
@@ -11022,7 +11025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>580</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>581</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>582</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>583</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>584</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>585</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>586</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>587</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>588</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>589</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>590</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>591</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>592</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>593</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>594</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>595</v>
       </c>
@@ -11246,7 +11249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>596</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>597</v>
       </c>
@@ -11274,7 +11277,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>598</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>599</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>600</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>601</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>602</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>603</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>604</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>605</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>606</v>
       </c>
@@ -11400,7 +11403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>607</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>608</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>609</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>610</v>
       </c>
@@ -11456,7 +11459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>611</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>612</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>613</v>
       </c>
@@ -11498,7 +11501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>614</v>
       </c>
@@ -11512,7 +11515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>615</v>
       </c>
@@ -11526,7 +11529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>616</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>617</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>618</v>
       </c>
@@ -11568,7 +11571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>619</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>620</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>621</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>622</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>623</v>
       </c>
@@ -11638,7 +11641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>624</v>
       </c>
@@ -11652,7 +11655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>625</v>
       </c>
@@ -11666,7 +11669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>626</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>627</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>628</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>629</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>630</v>
       </c>
@@ -11736,7 +11739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>631</v>
       </c>
@@ -11750,7 +11753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>632</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>633</v>
       </c>
@@ -11778,7 +11781,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>634</v>
       </c>
@@ -11792,7 +11795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>635</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>636</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>637</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>638</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>639</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>640</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>641</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>642</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>643</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>644</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>645</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>646</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>647</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>648</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>650</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>651</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>652</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>653</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>654</v>
       </c>
@@ -12058,7 +12061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>655</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>656</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>657</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>658</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>659</v>
       </c>
@@ -12128,7 +12131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>660</v>
       </c>
@@ -12142,7 +12145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>661</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>662</v>
       </c>
@@ -12170,7 +12173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>663</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>664</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>665</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>666</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>667</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>668</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>669</v>
       </c>
@@ -12268,7 +12271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>670</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>671</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>672</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>673</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>674</v>
       </c>
@@ -12338,7 +12341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>675</v>
       </c>
@@ -12352,7 +12355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>676</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>678</v>
       </c>
@@ -12380,7 +12383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>679</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>680</v>
       </c>
@@ -12408,7 +12411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>681</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>682</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>683</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>684</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>685</v>
       </c>
@@ -12478,7 +12481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>686</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>687</v>
       </c>
@@ -12506,7 +12509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>688</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>689</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>690</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>691</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>692</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>693</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>694</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>695</v>
       </c>
@@ -12618,7 +12621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>696</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>697</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>698</v>
       </c>
@@ -12660,7 +12663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>699</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>700</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>701</v>
       </c>
@@ -12702,7 +12705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>702</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>703</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>704</v>
       </c>
@@ -12744,7 +12747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>705</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>706</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>707</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>708</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>709</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>710</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>711</v>
       </c>
@@ -12842,7 +12845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>712</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>713</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>714</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>715</v>
       </c>
@@ -12898,7 +12901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>716</v>
       </c>
@@ -12912,7 +12915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>717</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>718</v>
       </c>
@@ -12940,7 +12943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>719</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>720</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>721</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>722</v>
       </c>
@@ -12996,7 +12999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>723</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>724</v>
       </c>
@@ -13024,7 +13027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>725</v>
       </c>
@@ -13038,7 +13041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>726</v>
       </c>
@@ -13052,7 +13055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>727</v>
       </c>
@@ -13066,7 +13069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>728</v>
       </c>
@@ -13080,7 +13083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>729</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>730</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>731</v>
       </c>
@@ -13122,7 +13125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>732</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>733</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>734</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>735</v>
       </c>
@@ -13178,7 +13181,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>736</v>
       </c>
@@ -13192,7 +13195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>737</v>
       </c>
@@ -13206,7 +13209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>738</v>
       </c>
@@ -13220,7 +13223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>739</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>740</v>
       </c>
@@ -13248,7 +13251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>741</v>
       </c>
@@ -13262,7 +13265,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>742</v>
       </c>
@@ -13276,7 +13279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>743</v>
       </c>
@@ -13290,7 +13293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>744</v>
       </c>
@@ -13304,7 +13307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>745</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>746</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>747</v>
       </c>
@@ -13346,7 +13349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>748</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>749</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>750</v>
       </c>
@@ -13388,7 +13391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>751</v>
       </c>
@@ -13402,7 +13405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>752</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>753</v>
       </c>
@@ -13430,7 +13433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>754</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>755</v>
       </c>
@@ -13458,7 +13461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>756</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>757</v>
       </c>
@@ -13486,7 +13489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>758</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>759</v>
       </c>
@@ -13514,7 +13517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>760</v>
       </c>
@@ -13528,7 +13531,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>761</v>
       </c>
@@ -13542,7 +13545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>762</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>763</v>
       </c>
@@ -13570,7 +13573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>764</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>765</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>766</v>
       </c>
@@ -13612,7 +13615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>767</v>
       </c>
@@ -13626,7 +13629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>768</v>
       </c>
@@ -13640,7 +13643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>769</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>770</v>
       </c>
@@ -13668,7 +13671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>771</v>
       </c>
@@ -13682,7 +13685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>772</v>
       </c>
@@ -13696,7 +13699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>773</v>
       </c>
@@ -13710,7 +13713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>774</v>
       </c>
@@ -13724,7 +13727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>775</v>
       </c>
@@ -13738,7 +13741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>776</v>
       </c>
@@ -13752,7 +13755,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>777</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>778</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>779</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>780</v>
       </c>
@@ -13808,7 +13811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>781</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>782</v>
       </c>
@@ -13836,7 +13839,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>784</v>
       </c>
@@ -13850,7 +13853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>785</v>
       </c>
@@ -13864,7 +13867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>786</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>787</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>788</v>
       </c>
@@ -13906,7 +13909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>789</v>
       </c>
@@ -13920,7 +13923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>790</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>791</v>
       </c>
@@ -13948,7 +13951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>792</v>
       </c>
@@ -13962,7 +13965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>793</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>794</v>
       </c>
@@ -13990,7 +13993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>795</v>
       </c>
@@ -14004,7 +14007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>796</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>797</v>
       </c>
@@ -14032,7 +14035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>798</v>
       </c>
@@ -14046,7 +14049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>799</v>
       </c>
@@ -14060,7 +14063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>800</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>801</v>
       </c>
@@ -14088,7 +14091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>802</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>803</v>
       </c>
@@ -14116,7 +14119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>804</v>
       </c>
@@ -14130,7 +14133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>805</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>806</v>
       </c>
@@ -14158,7 +14161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>807</v>
       </c>
@@ -14172,7 +14175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>808</v>
       </c>
@@ -14186,7 +14189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>809</v>
       </c>
@@ -14200,7 +14203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>810</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>811</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>812</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>813</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>814</v>
       </c>
@@ -14270,7 +14273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>815</v>
       </c>
@@ -14284,7 +14287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>816</v>
       </c>
@@ -14298,7 +14301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>817</v>
       </c>
@@ -14312,7 +14315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>818</v>
       </c>
@@ -14326,7 +14329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>819</v>
       </c>
@@ -14340,7 +14343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>820</v>
       </c>
@@ -14354,7 +14357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>821</v>
       </c>
@@ -14368,7 +14371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>822</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>823</v>
       </c>
@@ -14396,7 +14399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>824</v>
       </c>
@@ -14410,7 +14413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>825</v>
       </c>
@@ -14424,7 +14427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>826</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>827</v>
       </c>
@@ -14452,7 +14455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>828</v>
       </c>
@@ -14466,7 +14469,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>829</v>
       </c>
@@ -14480,7 +14483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>830</v>
       </c>
@@ -14494,7 +14497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>831</v>
       </c>
@@ -14508,7 +14511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>832</v>
       </c>
@@ -14522,7 +14525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>833</v>
       </c>
@@ -14536,7 +14539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>834</v>
       </c>
@@ -14550,7 +14553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>835</v>
       </c>
@@ -14564,7 +14567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>836</v>
       </c>
@@ -14578,7 +14581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>837</v>
       </c>
@@ -14592,7 +14595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>838</v>
       </c>
@@ -14606,7 +14609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>839</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>840</v>
       </c>
@@ -14634,7 +14637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>841</v>
       </c>
@@ -14648,7 +14651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>842</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>843</v>
       </c>
@@ -14676,7 +14679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>844</v>
       </c>
@@ -14690,7 +14693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>845</v>
       </c>
@@ -14704,7 +14707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>846</v>
       </c>
@@ -14718,7 +14721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>847</v>
       </c>
@@ -14732,7 +14735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>848</v>
       </c>
@@ -14746,7 +14749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>849</v>
       </c>
@@ -14760,7 +14763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>850</v>
       </c>
@@ -14774,7 +14777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>851</v>
       </c>
@@ -14788,7 +14791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>852</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>853</v>
       </c>
@@ -14816,7 +14819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>854</v>
       </c>
@@ -14830,7 +14833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>855</v>
       </c>
@@ -14844,7 +14847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>856</v>
       </c>
@@ -14858,7 +14861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>857</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>858</v>
       </c>
@@ -14886,7 +14889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>859</v>
       </c>
@@ -14900,7 +14903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>860</v>
       </c>
@@ -14914,7 +14917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>861</v>
       </c>
@@ -14928,7 +14931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>862</v>
       </c>
@@ -14942,7 +14945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>863</v>
       </c>
@@ -14956,7 +14959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>864</v>
       </c>
@@ -14970,7 +14973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>865</v>
       </c>
@@ -14984,7 +14987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>866</v>
       </c>
@@ -14998,7 +15001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>867</v>
       </c>
@@ -15012,7 +15015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>868</v>
       </c>
@@ -15026,7 +15029,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>869</v>
       </c>
@@ -15040,7 +15043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>870</v>
       </c>
@@ -15054,7 +15057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>871</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>872</v>
       </c>
@@ -15082,7 +15085,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>873</v>
       </c>
@@ -15096,7 +15099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>697</v>
       </c>
@@ -15110,7 +15113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>874</v>
       </c>
@@ -15124,7 +15127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>875</v>
       </c>
@@ -15138,7 +15141,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>876</v>
       </c>
@@ -15152,7 +15155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>877</v>
       </c>
@@ -15166,7 +15169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>878</v>
       </c>
@@ -15180,7 +15183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>879</v>
       </c>
@@ -15194,7 +15197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>880</v>
       </c>
@@ -15208,7 +15211,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>881</v>
       </c>
@@ -15222,7 +15225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>882</v>
       </c>
@@ -15236,7 +15239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>883</v>
       </c>
@@ -15250,7 +15253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>884</v>
       </c>
@@ -15264,7 +15267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>885</v>
       </c>
@@ -15278,7 +15281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>886</v>
       </c>
@@ -15292,7 +15295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>887</v>
       </c>
@@ -15306,7 +15309,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>888</v>
       </c>
@@ -15320,7 +15323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>889</v>
       </c>
@@ -15334,7 +15337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>890</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>891</v>
       </c>
@@ -15362,7 +15365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>892</v>
       </c>
@@ -15376,7 +15379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>893</v>
       </c>
@@ -15390,7 +15393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>894</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>895</v>
       </c>
@@ -15418,7 +15421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>896</v>
       </c>
@@ -15432,7 +15435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>897</v>
       </c>
@@ -15446,7 +15449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>898</v>
       </c>
@@ -15460,7 +15463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>899</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>900</v>
       </c>
@@ -15488,7 +15491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>901</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>902</v>
       </c>
@@ -15516,7 +15519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>903</v>
       </c>
@@ -15530,7 +15533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>904</v>
       </c>
@@ -15544,7 +15547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>905</v>
       </c>
@@ -15558,7 +15561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>906</v>
       </c>
@@ -15572,7 +15575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>907</v>
       </c>
@@ -15586,7 +15589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>908</v>
       </c>
@@ -15600,7 +15603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>909</v>
       </c>
@@ -15614,7 +15617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>910</v>
       </c>
@@ -15628,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>911</v>
       </c>
@@ -15642,7 +15645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>912</v>
       </c>
@@ -15656,7 +15659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>913</v>
       </c>
@@ -15670,7 +15673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>914</v>
       </c>
@@ -15684,7 +15687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>915</v>
       </c>
@@ -15698,7 +15701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>916</v>
       </c>
@@ -15712,7 +15715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>917</v>
       </c>
@@ -15726,7 +15729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>918</v>
       </c>
@@ -15740,7 +15743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>919</v>
       </c>
@@ -15754,7 +15757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>920</v>
       </c>
@@ -15768,7 +15771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>921</v>
       </c>
@@ -15782,7 +15785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>922</v>
       </c>
@@ -15796,7 +15799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>923</v>
       </c>
@@ -15810,7 +15813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>924</v>
       </c>
@@ -15824,7 +15827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>925</v>
       </c>
@@ -15838,7 +15841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>926</v>
       </c>
@@ -15852,7 +15855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>927</v>
       </c>
@@ -15866,7 +15869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>928</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>929</v>
       </c>
@@ -15894,7 +15897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>930</v>
       </c>
@@ -15908,7 +15911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>931</v>
       </c>
@@ -15922,7 +15925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>932</v>
       </c>
@@ -15936,7 +15939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>933</v>
       </c>
@@ -15950,7 +15953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>934</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>935</v>
       </c>
@@ -15978,7 +15981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>936</v>
       </c>
@@ -15992,7 +15995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>937</v>
       </c>
@@ -16006,7 +16009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>938</v>
       </c>
@@ -16020,7 +16023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>939</v>
       </c>
@@ -16034,7 +16037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>940</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>941</v>
       </c>
@@ -16062,7 +16065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>942</v>
       </c>
@@ -16076,7 +16079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>943</v>
       </c>
@@ -16090,7 +16093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>944</v>
       </c>
@@ -16104,7 +16107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>945</v>
       </c>
@@ -16118,7 +16121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>946</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>947</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>948</v>
       </c>
@@ -16160,7 +16163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>949</v>
       </c>
@@ -16174,7 +16177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>950</v>
       </c>
@@ -16188,7 +16191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>951</v>
       </c>
@@ -16202,7 +16205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>952</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>953</v>
       </c>
@@ -16230,7 +16233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>954</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>955</v>
       </c>
@@ -16258,7 +16261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>956</v>
       </c>
@@ -16272,7 +16275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>957</v>
       </c>
@@ -16286,7 +16289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>958</v>
       </c>
@@ -16300,7 +16303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>959</v>
       </c>
@@ -16314,7 +16317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>960</v>
       </c>
@@ -16328,7 +16331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>961</v>
       </c>
@@ -16342,7 +16345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>962</v>
       </c>
@@ -16356,7 +16359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>963</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>964</v>
       </c>
@@ -16384,7 +16387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>965</v>
       </c>
@@ -16398,7 +16401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>966</v>
       </c>
@@ -16412,7 +16415,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>967</v>
       </c>
@@ -16426,7 +16429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>968</v>
       </c>
@@ -16440,7 +16443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>969</v>
       </c>
@@ -16454,7 +16457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>970</v>
       </c>
@@ -16468,7 +16471,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>971</v>
       </c>
@@ -16482,7 +16485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>972</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>973</v>
       </c>
@@ -16510,7 +16513,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>974</v>
       </c>
@@ -16524,7 +16527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>975</v>
       </c>
@@ -16538,7 +16541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>976</v>
       </c>
@@ -16552,7 +16555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>977</v>
       </c>
@@ -16566,7 +16569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>978</v>
       </c>
@@ -16580,7 +16583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>979</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>980</v>
       </c>
@@ -16608,7 +16611,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
         <v>981</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>982</v>
       </c>
@@ -16636,7 +16639,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>984</v>
       </c>
@@ -16650,7 +16653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>985</v>
       </c>
@@ -16664,7 +16667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>986</v>
       </c>
@@ -16678,7 +16681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>987</v>
       </c>
@@ -16692,7 +16695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>988</v>
       </c>
@@ -16706,7 +16709,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>989</v>
       </c>
@@ -16720,7 +16723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
         <v>990</v>
       </c>
@@ -16734,7 +16737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>991</v>
       </c>
@@ -16748,7 +16751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>992</v>
       </c>
@@ -16762,7 +16765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>993</v>
       </c>
@@ -16776,7 +16779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>994</v>
       </c>
@@ -16790,7 +16793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>995</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>996</v>
       </c>
@@ -16818,7 +16821,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>997</v>
       </c>
@@ -16832,7 +16835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>998</v>
       </c>
@@ -16846,7 +16849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>999</v>
       </c>
@@ -16860,7 +16863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>1000</v>
       </c>
@@ -16874,7 +16877,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>1002</v>
       </c>
@@ -16888,7 +16891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>1003</v>
       </c>
@@ -16902,7 +16905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>1004</v>
       </c>
@@ -16916,7 +16919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>1005</v>
       </c>
@@ -16930,7 +16933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>1006</v>
       </c>
@@ -16944,7 +16947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>1007</v>
       </c>
@@ -16958,7 +16961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>1008</v>
       </c>
@@ -16972,7 +16975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>1009</v>
       </c>
@@ -16986,7 +16989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>1010</v>
       </c>
@@ -17000,7 +17003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>1011</v>
       </c>
@@ -17014,7 +17017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>1012</v>
       </c>
@@ -17028,7 +17031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>1013</v>
       </c>
@@ -17042,7 +17045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>1014</v>
       </c>
@@ -17056,7 +17059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>1015</v>
       </c>
@@ -17070,7 +17073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>1016</v>
       </c>
@@ -17084,7 +17087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>1017</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>1018</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>1019</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>1020</v>
       </c>
@@ -17140,7 +17143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>1021</v>
       </c>
@@ -17154,7 +17157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>1022</v>
       </c>
@@ -17168,7 +17171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>1023</v>
       </c>
@@ -17182,7 +17185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>1024</v>
       </c>
@@ -17196,7 +17199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>1025</v>
       </c>
@@ -17210,7 +17213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>1026</v>
       </c>
@@ -17224,7 +17227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>1027</v>
       </c>
@@ -17238,7 +17241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>1028</v>
       </c>
@@ -17252,7 +17255,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>1029</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>1030</v>
       </c>
@@ -17280,7 +17283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
         <v>1031</v>
       </c>
@@ -17294,7 +17297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>1032</v>
       </c>
@@ -17308,7 +17311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>1033</v>
       </c>
@@ -17322,7 +17325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>1034</v>
       </c>
@@ -17336,7 +17339,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>1037</v>
       </c>
@@ -17350,7 +17353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>1038</v>
       </c>
@@ -17364,7 +17367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>1039</v>
       </c>
@@ -17378,7 +17381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>1040</v>
       </c>
@@ -17392,7 +17395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>1041</v>
       </c>
@@ -17406,7 +17409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>1042</v>
       </c>
@@ -17420,7 +17423,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>1043</v>
       </c>
@@ -17434,7 +17437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>1044</v>
       </c>
@@ -17448,7 +17451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>1045</v>
       </c>
@@ -17462,7 +17465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>1046</v>
       </c>
@@ -17476,7 +17479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>1047</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>1048</v>
       </c>
@@ -17504,7 +17507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>1049</v>
       </c>
@@ -17518,7 +17521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>1050</v>
       </c>
@@ -17532,7 +17535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>1051</v>
       </c>
@@ -17546,7 +17549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>1052</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>1053</v>
       </c>
@@ -17574,7 +17577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>1054</v>
       </c>
@@ -17588,7 +17591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>1055</v>
       </c>
@@ -17602,7 +17605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
         <v>1056</v>
       </c>
@@ -17616,7 +17619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
         <v>1057</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
         <v>1058</v>
       </c>
@@ -17644,7 +17647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>1059</v>
       </c>
@@ -17658,7 +17661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>1060</v>
       </c>
@@ -17672,7 +17675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
         <v>1061</v>
       </c>
@@ -17686,7 +17689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
         <v>1062</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
         <v>1063</v>
       </c>
@@ -17714,7 +17717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
         <v>1064</v>
       </c>
@@ -17728,7 +17731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17742,7 +17745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
         <v>1066</v>
       </c>
@@ -17756,7 +17759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
         <v>1067</v>
       </c>
@@ -17770,7 +17773,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17798,7 +17801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
         <v>1070</v>
       </c>
@@ -17812,7 +17815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
         <v>1071</v>
       </c>
@@ -17826,7 +17829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
         <v>1072</v>
       </c>
@@ -17840,7 +17843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17854,7 +17857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
         <v>1074</v>
       </c>
@@ -17868,7 +17871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17882,7 +17885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
         <v>1076</v>
       </c>
@@ -17896,7 +17899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17910,7 +17913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>1078</v>
       </c>
@@ -17924,7 +17927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
         <v>1079</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
         <v>1080</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
         <v>1081</v>
       </c>
@@ -17966,7 +17969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
         <v>1082</v>
       </c>
@@ -17980,7 +17983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
         <v>1083</v>
       </c>
@@ -17994,7 +17997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
         <v>1084</v>
       </c>
@@ -18008,7 +18011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
         <v>1085</v>
       </c>
@@ -18022,7 +18025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
         <v>1086</v>
       </c>
@@ -18036,7 +18039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
         <v>1087</v>
       </c>
@@ -18050,7 +18053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
         <v>1088</v>
       </c>
@@ -18064,7 +18067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
         <v>1089</v>
       </c>
@@ -18078,7 +18081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
         <v>1090</v>
       </c>
@@ -18092,7 +18095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
         <v>1091</v>
       </c>
@@ -18103,6 +18106,20 @@
         <v>46</v>
       </c>
       <c r="D1030" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>1995416</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1031" s="1" t="s">
         <v>6</v>
       </c>
     </row>
